--- a/custom_addons/lab_product/demo/stock_quant.xlsx
+++ b/custom_addons/lab_product/demo/stock_quant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninaanic/Tehnicke/12_semestar/diplomski/odoo-template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninaanic/Tehnicke/12_semestar/diplomski/odoo-new/custom_addons/lab_product/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1BEEC1-FD85-5844-A32A-608C66CAF5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C3597E-3E04-EA40-8D48-6C043250FF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8680" yWindow="2440" windowWidth="43400" windowHeight="24760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16660" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -793,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>102</v>
@@ -805,7 +805,7 @@
       </c>
       <c r="B3" s="2">
         <f>B2+1</f>
-        <v>305</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>103</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ref="B4:B67" si="0">B3+1</f>
-        <v>306</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>104</v>
@@ -829,7 +829,7 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
-        <v>307</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -841,7 +841,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
-        <v>308</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -853,7 +853,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
-        <v>309</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -865,7 +865,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -877,7 +877,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>311</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -889,7 +889,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>312</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>105</v>
@@ -901,7 +901,7 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>313</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>106</v>
@@ -913,7 +913,7 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>314</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>104</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>104</v>
@@ -937,7 +937,7 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>316</v>
+        <v>114</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>104</v>
@@ -949,7 +949,7 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>317</v>
+        <v>115</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>104</v>
@@ -961,7 +961,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>318</v>
+        <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>107</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>319</v>
+        <v>117</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>107</v>
@@ -985,7 +985,7 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>118</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>104</v>
@@ -997,7 +997,7 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>104</v>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>322</v>
+        <v>120</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>104</v>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>323</v>
+        <v>121</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>104</v>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>324</v>
+        <v>122</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>104</v>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>325</v>
+        <v>123</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>104</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>326</v>
+        <v>124</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>108</v>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>327</v>
+        <v>125</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>109</v>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>328</v>
+        <v>126</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>329</v>
+        <v>127</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>128</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>129</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>332</v>
+        <v>130</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>110</v>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>131</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>110</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>132</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>111</v>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>133</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>109</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B34" s="2">
         <f t="shared" si="0"/>
-        <v>336</v>
+        <v>134</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B35" s="2">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>135</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>107</v>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B36" s="2">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>136</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>137</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B38" s="2">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>138</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B39" s="2">
         <f t="shared" si="0"/>
-        <v>341</v>
+        <v>139</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B40" s="2">
         <f t="shared" si="0"/>
-        <v>342</v>
+        <v>140</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B41" s="2">
         <f t="shared" si="0"/>
-        <v>343</v>
+        <v>141</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B42" s="2">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>142</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>104</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B43" s="2">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>143</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>104</v>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B44" s="2">
         <f t="shared" si="0"/>
-        <v>346</v>
+        <v>144</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>104</v>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B45" s="2">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>145</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="B46" s="2">
         <f t="shared" si="0"/>
-        <v>348</v>
+        <v>146</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>112</v>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B47" s="2">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>147</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>104</v>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="B48" s="2">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>148</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>108</v>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B49" s="2">
         <f t="shared" si="0"/>
-        <v>351</v>
+        <v>149</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>110</v>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B50" s="2">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>150</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>113</v>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="B51" s="2">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>151</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B52" s="2">
         <f t="shared" si="0"/>
-        <v>354</v>
+        <v>152</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="B53" s="2">
         <f t="shared" si="0"/>
-        <v>355</v>
+        <v>153</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B54" s="2">
         <f t="shared" si="0"/>
-        <v>356</v>
+        <v>154</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B55" s="2">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>155</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="B56" s="2">
         <f t="shared" si="0"/>
-        <v>358</v>
+        <v>156</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="B57" s="2">
         <f t="shared" si="0"/>
-        <v>359</v>
+        <v>157</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B58" s="2">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>158</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>108</v>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="B59" s="2">
         <f t="shared" si="0"/>
-        <v>361</v>
+        <v>159</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>109</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B60" s="2">
         <f t="shared" si="0"/>
-        <v>362</v>
+        <v>160</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>109</v>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B61" s="2">
         <f t="shared" si="0"/>
-        <v>363</v>
+        <v>161</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B62" s="2">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>162</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="B63" s="2">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>163</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B64" s="2">
         <f t="shared" si="0"/>
-        <v>366</v>
+        <v>164</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B65" s="2">
         <f t="shared" si="0"/>
-        <v>367</v>
+        <v>165</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B66" s="2">
         <f t="shared" si="0"/>
-        <v>368</v>
+        <v>166</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B67" s="2">
         <f t="shared" si="0"/>
-        <v>369</v>
+        <v>167</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="B68" s="2">
         <f t="shared" ref="B68:B95" si="1">B67+1</f>
-        <v>370</v>
+        <v>168</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B69" s="2">
         <f t="shared" si="1"/>
-        <v>371</v>
+        <v>169</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="B70" s="2">
         <f t="shared" si="1"/>
-        <v>372</v>
+        <v>170</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="B71" s="2">
         <f t="shared" si="1"/>
-        <v>373</v>
+        <v>171</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="B72" s="2">
         <f t="shared" si="1"/>
-        <v>374</v>
+        <v>172</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="B73" s="2">
         <f t="shared" si="1"/>
-        <v>375</v>
+        <v>173</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B74" s="2">
         <f t="shared" si="1"/>
-        <v>376</v>
+        <v>174</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B75" s="2">
         <f t="shared" si="1"/>
-        <v>377</v>
+        <v>175</v>
       </c>
       <c r="C75" s="1">
         <v>400</v>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="B76" s="2">
         <f t="shared" si="1"/>
-        <v>378</v>
+        <v>176</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B77" s="2">
         <f t="shared" si="1"/>
-        <v>379</v>
+        <v>177</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="B78" s="2">
         <f t="shared" si="1"/>
-        <v>380</v>
+        <v>178</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B79" s="2">
         <f t="shared" si="1"/>
-        <v>381</v>
+        <v>179</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>103</v>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B80" s="2">
         <f t="shared" si="1"/>
-        <v>382</v>
+        <v>180</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>114</v>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B81" s="2">
         <f t="shared" si="1"/>
-        <v>383</v>
+        <v>181</v>
       </c>
       <c r="C81" s="1">
         <v>500</v>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B82" s="2">
         <f t="shared" si="1"/>
-        <v>384</v>
+        <v>182</v>
       </c>
       <c r="C82" s="1">
         <v>100</v>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="B83" s="2">
         <f t="shared" si="1"/>
-        <v>385</v>
+        <v>183</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B84" s="2">
         <f t="shared" si="1"/>
-        <v>386</v>
+        <v>184</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>115</v>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="B85" s="2">
         <f t="shared" si="1"/>
-        <v>387</v>
+        <v>185</v>
       </c>
       <c r="C85" s="1">
         <v>800</v>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B86" s="2">
         <f t="shared" si="1"/>
-        <v>388</v>
+        <v>186</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>110</v>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="B87" s="2">
         <f t="shared" si="1"/>
-        <v>389</v>
+        <v>187</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>115</v>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B88" s="2">
         <f t="shared" si="1"/>
-        <v>390</v>
+        <v>188</v>
       </c>
       <c r="C88" s="1">
         <v>250</v>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B89" s="2">
         <f t="shared" si="1"/>
-        <v>391</v>
+        <v>189</v>
       </c>
       <c r="C89" s="1">
         <v>100</v>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B90" s="2">
         <f t="shared" si="1"/>
-        <v>392</v>
+        <v>190</v>
       </c>
       <c r="C90" s="1">
         <v>500</v>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B91" s="2">
         <f t="shared" si="1"/>
-        <v>393</v>
+        <v>191</v>
       </c>
       <c r="C91" s="1">
         <v>500</v>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="B92" s="2">
         <f t="shared" si="1"/>
-        <v>394</v>
+        <v>192</v>
       </c>
       <c r="C92" s="1">
         <v>500</v>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="B93" s="2">
         <f t="shared" si="1"/>
-        <v>395</v>
+        <v>193</v>
       </c>
       <c r="C93" s="1">
         <v>500</v>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B94" s="2">
         <f t="shared" si="1"/>
-        <v>396</v>
+        <v>194</v>
       </c>
       <c r="C94" s="1">
         <v>500</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B95" s="2">
         <f t="shared" si="1"/>
-        <v>397</v>
+        <v>195</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -1968,7 +1968,7 @@
         <v>95</v>
       </c>
       <c r="B102" s="1">
-        <v>398</v>
+        <v>196</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>104</v>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B103" s="1">
         <f>B102+1</f>
-        <v>399</v>
+        <v>197</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>104</v>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="B104" s="1">
         <f t="shared" ref="B104:B108" si="2">B103+1</f>
-        <v>400</v>
+        <v>198</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>104</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B105" s="1">
         <f t="shared" si="2"/>
-        <v>401</v>
+        <v>199</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>104</v>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B106" s="1">
         <f t="shared" si="2"/>
-        <v>402</v>
+        <v>200</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>104</v>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="B107" s="1">
         <f t="shared" si="2"/>
-        <v>403</v>
+        <v>201</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>104</v>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B108" s="1">
         <f t="shared" si="2"/>
-        <v>404</v>
+        <v>202</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>104</v>
